--- a/assets/files/submission/dra_analysis_metadata.xlsx
+++ b/assets/files/submission/dra_analysis_metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38808" windowHeight="8772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
@@ -1213,13 +1213,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="133.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="55.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="7"/>
   </cols>
@@ -1295,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1382,12 +1382,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Admin!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D161</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Admin!$B$2:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/assets/files/submission/dra_analysis_metadata.xlsx
+++ b/assets/files/submission/dra_analysis_metadata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.45\ykodama\www\assets\files\submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.22\ykodama\ykodama-raid\dra\analysis\tsv2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38808" windowHeight="8772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38808" windowHeight="8772"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
   <si>
     <t>Alias</t>
   </si>
@@ -687,22 +687,6 @@
   </si>
   <si>
     <t>e037282e82f44e7de82e2aa9cab30996;e037282e82f44e7de82e2aa9cab30996;e037282e82f44e7de82e2aa9cab30996</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>alignment:bwa v1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>completeness:90%;contamination:6%;tool:checkM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>completeness:85%;contamination:4%;tool:checkM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>completeness:95%;contamination:1%;tool:checkM</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -767,6 +751,108 @@
     <rPh sb="58" eb="60">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Analysis step</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>解析パイプラインのステップを「プログラム名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バージョン番号」で解析順に記載。複数は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>区切りで列挙</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>レッキョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Burrows-Wheller-Aligner:0.7.10;fastx-clipper:1.1.2-318</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>canu:2.1;pilon:1.24;CheckM:1.1.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>completeness:90;contamination:6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>completeness:85.3;contamination:0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>completeness:92.1;contamination:3.4</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1213,9 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1226,19 +1310,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="32.4" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="6"/>
     </row>
@@ -1248,20 +1332,20 @@
     </row>
     <row r="5" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
@@ -1270,7 +1354,7 @@
     </row>
     <row r="9" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B9" s="6"/>
     </row>
@@ -1293,9 +1377,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1308,11 +1392,12 @@
     <col min="7" max="7" width="46.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="73.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1341,10 +1426,13 @@
         <v>62</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1373,6 +1461,9 @@
         <v>47</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1382,18 +1473,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Admin!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D161</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Admin!$B$2:$B$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1403,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1420,11 +1505,12 @@
     <col min="7" max="7" width="46.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="73.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1453,10 +1539,13 @@
         <v>62</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1485,10 +1574,13 @@
         <v>47</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -1517,10 +1609,10 @@
         <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
@@ -1549,10 +1641,10 @@
         <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -1581,10 +1673,10 @@
         <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -1613,10 +1705,10 @@
         <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1642,10 +1734,13 @@
         <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -1671,10 +1766,13 @@
         <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -1700,7 +1798,10 @@
         <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/submission/dra_analysis_metadata.xlsx
+++ b/assets/files/submission/dra_analysis_metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.22\ykodama\ykodama-raid\dra\analysis\tsv2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.45\ykodama\www\assets\files\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1473,12 +1473,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Admin!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D161</xm:sqref>
+          <xm:sqref>D3:D500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Admin!$B$2:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/assets/files/submission/dra_analysis_metadata.xlsx
+++ b/assets/files/submission/dra_analysis_metadata.xlsx
@@ -1473,18 +1473,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Admin!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Admin!$B$2:$B$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1497,7 +1491,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/assets/files/submission/dra_analysis_metadata.xlsx
+++ b/assets/files/submission/dra_analysis_metadata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.112.45\ykodama\www\assets\files\submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ddbjs4.nig.ac.jp\ykodama\ykodama-raid\dra\analysis\tsv2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38808" windowHeight="8772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20124" windowHeight="8772"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>Alias</t>
   </si>
@@ -88,60 +88,6 @@
   </si>
   <si>
     <t>a84c9a407418e265779062170b0939ab</t>
-  </si>
-  <si>
-    <t>10730-110B1_CNhs12193.hg38.align</t>
-  </si>
-  <si>
-    <t>Genomic alignments to the reference genome hg38 for 10730-110B1_CNhs12193</t>
-  </si>
-  <si>
-    <t>SAMD00006019</t>
-  </si>
-  <si>
-    <t>10821-111C2_CNhs12331.hg38.align</t>
-  </si>
-  <si>
-    <t>Genomic alignments to the reference genome hg38 for 10821-111C2_CNhs12331</t>
-  </si>
-  <si>
-    <t>SAMD00005328</t>
-  </si>
-  <si>
-    <t>CNhs12331.bam</t>
-  </si>
-  <si>
-    <t>f5148b76af0bd9d8f110916965b41bb4</t>
-  </si>
-  <si>
-    <t>10822-111C3_CNhs12332.hg38.align</t>
-  </si>
-  <si>
-    <t>Genomic alignments to the reference genome hg38 for 10822-111C3_CNhs12332</t>
-  </si>
-  <si>
-    <t>SAMD00005657</t>
-  </si>
-  <si>
-    <t>CNhs12332.bam</t>
-  </si>
-  <si>
-    <t>4921b3d80f7e17a191eb52bfa4620ac1</t>
-  </si>
-  <si>
-    <t>10823-111C4_CNhs12333.hg38.align</t>
-  </si>
-  <si>
-    <t>Genomic alignments to the reference genome hg38 for 10823-111C4_CNhs12333</t>
-  </si>
-  <si>
-    <t>SAMD00004741</t>
-  </si>
-  <si>
-    <t>CNhs12333.bam</t>
-  </si>
-  <si>
-    <t>84ad4c9fd72fcc8995b4779d256afdc1</t>
   </si>
   <si>
     <t>ABUNDANCE_MEASUREMENT</t>
@@ -675,18 +621,6 @@
     <rPh sb="30" eb="32">
       <t>レッキョ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CNhs12193.bam;CNhs12194.bam;CNhs12195.bam</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bam;bam;bam</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>e037282e82f44e7de82e2aa9cab30996;e037282e82f44e7de82e2aa9cab30996;e037282e82f44e7de82e2aa9cab30996</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -836,23 +770,191 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Burrows-Wheller-Aligner:0.7.10;fastx-clipper:1.1.2-318</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>canu:2.1;pilon:1.24;CheckM:1.1.3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>completeness:90;contamination:6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>completeness:85.3;contamination:0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>completeness:92.1;contamination:3.4</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>解析パイプラインのステップを「ステップの内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プログラム名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バージョン番号」で解析順に記載。複数は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>区切りで列挙</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>レッキョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SOY3.fasta</t>
+  </si>
+  <si>
+    <t>d220c355e4e494fd2fe629fc8ce94430</t>
+  </si>
+  <si>
+    <t>SOY3_bin001.fasta;SOY3_bin001.ffn</t>
+  </si>
+  <si>
+    <t>fasta;fasta</t>
+  </si>
+  <si>
+    <t>23875b43bbabac1f378d590cf11b97b2;e9595c64d9971b25a8fca884c7c4194a</t>
+  </si>
+  <si>
+    <t>Binning:MetaBAT:0.25.4;Annotation:prokka:1.11</t>
+  </si>
+  <si>
+    <t>b5a1c7bf3287b5a05b99c7627051eec8;93e337e4b5ed24773f150c9fd1989a5c</t>
+  </si>
+  <si>
+    <t>82ba2f99d1268f77e3c3074a4b25cd6c;00605f08dd304ad54ca1d6f9952523f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary metagenome </t>
+  </si>
+  <si>
+    <t>Metagenomic assembly obtained from the bioreactor sludge metagenome BioSample: SAMD00325978-SAMD00325980</t>
+  </si>
+  <si>
+    <t>SAMD00325978;SAMD00325979;SAMD00325980</t>
+  </si>
+  <si>
+    <t>binned metagenome bin001</t>
+  </si>
+  <si>
+    <t>Binned metagenomic assembly obtained from the bioreactor sludge metagenome BioSample: SAMD00325978-SAMD00325980</t>
+  </si>
+  <si>
+    <t>SAMD00392303</t>
+  </si>
+  <si>
+    <t>SAMD00392304</t>
+  </si>
+  <si>
+    <t>SAMD00392305</t>
+  </si>
+  <si>
+    <t>binned metagenome bin002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>binned metagenome bin003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SOY3_bin002.fasta;SOY3_bin002.ffn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SOY3_bin003.fasta;SOY3_bin003.ffn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>alignment:Burrows-Wheller-Aligner:0.7.10;trimming:fastx-clipper:1.1.2-318</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Quality trimming:trimmomatic:0.33;digital normalization:khmer:1.4.1;assembly:SPAdes:3.5.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>metagenome_assembly:primary</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>metagenome_assembly:binned,completeness:90;contamination:0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>metagenome_assembly:binned,completeness:85;contamination:2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>metagenome_assembly:binned,completeness:95;contamination:3.3</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1310,19 +1412,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="32.4" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B3" s="6"/>
     </row>
@@ -1332,20 +1434,20 @@
     </row>
     <row r="5" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
@@ -1354,13 +1456,13 @@
     </row>
     <row r="9" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="B10" s="6"/>
     </row>
@@ -1399,37 +1501,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1446,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
@@ -1458,13 +1560,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1580,7 @@
           <x14:formula1>
             <xm:f>Admin!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D500</xm:sqref>
+          <xm:sqref>D3:D161</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1490,59 +1592,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="83.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="88.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="56" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1559,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
@@ -1571,18 +1671,18 @@
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1606,7 +1706,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>90</v>
@@ -1614,7 +1714,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -1626,7 +1726,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
@@ -1638,7 +1738,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>90</v>
@@ -1646,7 +1746,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1658,7 +1758,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>20</v>
@@ -1670,7 +1770,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>90</v>
@@ -1678,130 +1778,130 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1837,18 +1937,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1856,12 +1956,12 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1869,50 +1969,50 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
